--- a/data/trans_orig/P36B_3_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B_3_R-Estudios-trans_orig.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0665E808-FE52-4062-BF61-5FE3ACB167BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{777B32FC-EDB5-4C50-9FE5-71FA0FE8F160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9E0C7731-E612-4326-939B-10A6A8DC97F2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{37A8E9C7-29C1-406F-A725-2C5F2170374E}"/>
   </bookViews>
   <sheets>
-    <sheet name="2023" sheetId="2" r:id="rId1"/>
+    <sheet name="2007" sheetId="2" r:id="rId1"/>
+    <sheet name="2012" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
+    <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,41 +39,713 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
+  <si>
+    <t>Población que consume verduras y hortalizas a diario en 2007 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>Hombre</t>
+  </si>
+  <si>
+    <t>Mujer</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>n (muestra)</t>
+  </si>
+  <si>
+    <t>N (estimada)</t>
+  </si>
+  <si>
+    <t>Estimación puntual</t>
+  </si>
+  <si>
+    <t>lím inf IC</t>
+  </si>
+  <si>
+    <t>lím sup IC</t>
+  </si>
+  <si>
+    <t>Primarios</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que consume verduras y hortalizas a diario en 2012 (Tasa respuesta: 99,78%)</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>Población que consume verduras y hortalizas a diario en 2016 (Tasa respuesta: 99,53%)</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
   <si>
     <t>Población que consume verduras y hortalizas a diario en 2023 (Tasa respuesta: 99,82%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>n (muestra)</t>
-  </si>
-  <si>
-    <t>N (estimada)</t>
-  </si>
-  <si>
-    <t>Estimación puntual</t>
-  </si>
-  <si>
-    <t>lím inf IC</t>
-  </si>
-  <si>
-    <t>lím sup IC</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>69,47%</t>
   </si>
   <si>
@@ -95,12 +770,6 @@
     <t>69,37%</t>
   </si>
   <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>30,53%</t>
   </si>
   <si>
@@ -122,18 +791,9 @@
     <t>28,12%</t>
   </si>
   <si>
-    <t>26,18%</t>
-  </si>
-  <si>
     <t>30,63%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
     <t>70,43%</t>
   </si>
   <si>
@@ -188,9 +848,6 @@
     <t>28,01%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
     <t>74,58%</t>
   </si>
   <si>
@@ -291,9 +948,6 @@
   </si>
   <si>
     <t>27,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
 </sst>
 </file>
@@ -705,7 +1359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DFB6D48-C49E-43B9-8D52-058A817B917D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE33AACC-F46D-47DD-A417-E019690EBA1F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -823,10 +1477,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>477</v>
+        <v>268</v>
       </c>
       <c r="D4" s="7">
-        <v>375742</v>
+        <v>265060</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -838,10 +1492,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1055</v>
+        <v>369</v>
       </c>
       <c r="I4" s="7">
-        <v>612339</v>
+        <v>374382</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -853,10 +1507,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>1532</v>
+        <v>637</v>
       </c>
       <c r="N4" s="7">
-        <v>988081</v>
+        <v>639442</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -874,10 +1528,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>213</v>
+        <v>769</v>
       </c>
       <c r="D5" s="7">
-        <v>165108</v>
+        <v>765829</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -889,10 +1543,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>368</v>
+        <v>922</v>
       </c>
       <c r="I5" s="7">
-        <v>221403</v>
+        <v>940731</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -904,10 +1558,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>581</v>
+        <v>1691</v>
       </c>
       <c r="N5" s="7">
-        <v>386511</v>
+        <v>1706560</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -925,10 +1579,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>690</v>
+        <v>1037</v>
       </c>
       <c r="D6" s="7">
-        <v>540850</v>
+        <v>1030889</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -940,10 +1594,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>1423</v>
+        <v>1291</v>
       </c>
       <c r="I6" s="7">
-        <v>833742</v>
+        <v>1315113</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -955,10 +1609,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>2113</v>
+        <v>2328</v>
       </c>
       <c r="N6" s="7">
-        <v>1374592</v>
+        <v>2346002</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -978,10 +1632,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1427</v>
+        <v>279</v>
       </c>
       <c r="D7" s="7">
-        <v>1520856</v>
+        <v>288617</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -993,10 +1647,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>2252</v>
+        <v>399</v>
       </c>
       <c r="I7" s="7">
-        <v>1732551</v>
+        <v>415453</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1008,10 +1662,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>3679</v>
+        <v>678</v>
       </c>
       <c r="N7" s="7">
-        <v>3253407</v>
+        <v>704070</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1029,10 +1683,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>562</v>
+        <v>1370</v>
       </c>
       <c r="D8" s="7">
-        <v>638416</v>
+        <v>1404796</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1044,10 +1698,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>666</v>
+        <v>1154</v>
       </c>
       <c r="I8" s="7">
-        <v>514686</v>
+        <v>1171160</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1059,10 +1713,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1228</v>
+        <v>2524</v>
       </c>
       <c r="N8" s="7">
-        <v>1153102</v>
+        <v>2575956</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1080,10 +1734,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>1989</v>
+        <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>2159272</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1095,10 +1749,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>2918</v>
+        <v>1553</v>
       </c>
       <c r="I9" s="7">
-        <v>2247237</v>
+        <v>1586613</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1110,10 +1764,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>4907</v>
+        <v>3202</v>
       </c>
       <c r="N9" s="7">
-        <v>4406509</v>
+        <v>3280026</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1133,10 +1787,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>512</v>
+        <v>124</v>
       </c>
       <c r="D10" s="7">
-        <v>501955</v>
+        <v>133025</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1148,10 +1802,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>836</v>
+        <v>140</v>
       </c>
       <c r="I10" s="7">
-        <v>580706</v>
+        <v>151527</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1163,10 +1817,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>1348</v>
+        <v>264</v>
       </c>
       <c r="N10" s="7">
-        <v>1082662</v>
+        <v>284552</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1184,10 +1838,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>169</v>
+        <v>403</v>
       </c>
       <c r="D11" s="7">
-        <v>171084</v>
+        <v>418383</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1199,10 +1853,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>168</v>
+        <v>312</v>
       </c>
       <c r="I11" s="7">
-        <v>133180</v>
+        <v>324885</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1214,10 +1868,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>337</v>
+        <v>715</v>
       </c>
       <c r="N11" s="7">
-        <v>304264</v>
+        <v>743268</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1235,10 +1889,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>681</v>
+        <v>527</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>551408</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1250,10 +1904,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1004</v>
+        <v>452</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>476412</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1265,10 +1919,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1685</v>
+        <v>979</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1027820</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1288,49 +1942,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2416</v>
+        <v>671</v>
       </c>
       <c r="D13" s="7">
-        <v>2398553</v>
+        <v>686702</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>4143</v>
+        <v>908</v>
       </c>
       <c r="I13" s="7">
-        <v>2925596</v>
+        <v>941363</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>6559</v>
+        <v>1579</v>
       </c>
       <c r="N13" s="7">
-        <v>5324149</v>
+        <v>1628064</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1339,49 +1993,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>944</v>
+        <v>2542</v>
       </c>
       <c r="D14" s="7">
-        <v>974607</v>
+        <v>2589007</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>1202</v>
+        <v>2388</v>
       </c>
       <c r="I14" s="7">
-        <v>869270</v>
+        <v>2436775</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>2146</v>
+        <v>4930</v>
       </c>
       <c r="N14" s="7">
-        <v>1843877</v>
+        <v>5025783</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1390,6 +2044,2259 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>3213</v>
+      </c>
+      <c r="D15" s="7">
+        <v>3275709</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>3296</v>
+      </c>
+      <c r="I15" s="7">
+        <v>3378138</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>6509</v>
+      </c>
+      <c r="N15" s="7">
+        <v>6653847</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA70697-6688-47C0-8BF1-46A0FBA5DF27}">
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>385</v>
+      </c>
+      <c r="D4" s="7">
+        <v>414688</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="7">
+        <v>621</v>
+      </c>
+      <c r="I4" s="7">
+        <v>661702</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M4" s="7">
+        <v>1006</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1076390</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>519</v>
+      </c>
+      <c r="D5" s="7">
+        <v>555822</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="7">
+        <v>626</v>
+      </c>
+      <c r="I5" s="7">
+        <v>676094</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1145</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1231916</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>904</v>
+      </c>
+      <c r="D6" s="7">
+        <v>970510</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1247</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1337796</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7">
+        <v>2151</v>
+      </c>
+      <c r="N6" s="7">
+        <v>2308306</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>600</v>
+      </c>
+      <c r="D7" s="7">
+        <v>628644</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H7" s="7">
+        <v>675</v>
+      </c>
+      <c r="I7" s="7">
+        <v>731053</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1275</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1359697</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1254</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1333269</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H8" s="7">
+        <v>954</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1018853</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M8" s="7">
+        <v>2208</v>
+      </c>
+      <c r="N8" s="7">
+        <v>2352122</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1854</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1961913</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1629</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1749906</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="7">
+        <v>3483</v>
+      </c>
+      <c r="N9" s="7">
+        <v>3711819</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>165</v>
+      </c>
+      <c r="D10" s="7">
+        <v>183229</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H10" s="7">
+        <v>216</v>
+      </c>
+      <c r="I10" s="7">
+        <v>244069</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M10" s="7">
+        <v>381</v>
+      </c>
+      <c r="N10" s="7">
+        <v>427298</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7">
+        <v>272</v>
+      </c>
+      <c r="D11" s="7">
+        <v>296923</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H11" s="7">
+        <v>195</v>
+      </c>
+      <c r="I11" s="7">
+        <v>212627</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M11" s="7">
+        <v>467</v>
+      </c>
+      <c r="N11" s="7">
+        <v>509550</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>437</v>
+      </c>
+      <c r="D12" s="7">
+        <v>480152</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
+        <v>411</v>
+      </c>
+      <c r="I12" s="7">
+        <v>456696</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
+        <v>848</v>
+      </c>
+      <c r="N12" s="7">
+        <v>936848</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1150</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1226560</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1512</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1636825</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M13" s="7">
+        <v>2662</v>
+      </c>
+      <c r="N13" s="7">
+        <v>2863385</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7">
+        <v>2045</v>
+      </c>
+      <c r="D14" s="7">
+        <v>2186014</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1775</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1907573</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M14" s="7">
+        <v>3820</v>
+      </c>
+      <c r="N14" s="7">
+        <v>4093587</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>3195</v>
+      </c>
+      <c r="D15" s="7">
+        <v>3412574</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>3287</v>
+      </c>
+      <c r="I15" s="7">
+        <v>3544398</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>6482</v>
+      </c>
+      <c r="N15" s="7">
+        <v>6956972</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D52E806B-6F34-44D4-9770-FE4CFF7B8517}">
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>221</v>
+      </c>
+      <c r="D4" s="7">
+        <v>217768</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H4" s="7">
+        <v>336</v>
+      </c>
+      <c r="I4" s="7">
+        <v>374219</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="M4" s="7">
+        <v>557</v>
+      </c>
+      <c r="N4" s="7">
+        <v>591987</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>539</v>
+      </c>
+      <c r="D5" s="7">
+        <v>534620</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H5" s="7">
+        <v>552</v>
+      </c>
+      <c r="I5" s="7">
+        <v>615972</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1091</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1150593</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>760</v>
+      </c>
+      <c r="D6" s="7">
+        <v>752388</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
+        <v>888</v>
+      </c>
+      <c r="I6" s="7">
+        <v>990191</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7">
+        <v>1648</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1742580</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>478</v>
+      </c>
+      <c r="D7" s="7">
+        <v>510297</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H7" s="7">
+        <v>601</v>
+      </c>
+      <c r="I7" s="7">
+        <v>638964</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1079</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1149261</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1463</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1552878</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1297</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1339011</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="M8" s="7">
+        <v>2760</v>
+      </c>
+      <c r="N8" s="7">
+        <v>2891889</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1941</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2063175</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1898</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1977975</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="7">
+        <v>3839</v>
+      </c>
+      <c r="N9" s="7">
+        <v>4041150</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>184</v>
+      </c>
+      <c r="D10" s="7">
+        <v>203327</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H10" s="7">
+        <v>214</v>
+      </c>
+      <c r="I10" s="7">
+        <v>228574</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="M10" s="7">
+        <v>398</v>
+      </c>
+      <c r="N10" s="7">
+        <v>431900</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7">
+        <v>315</v>
+      </c>
+      <c r="D11" s="7">
+        <v>341549</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H11" s="7">
+        <v>310</v>
+      </c>
+      <c r="I11" s="7">
+        <v>318602</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="M11" s="7">
+        <v>625</v>
+      </c>
+      <c r="N11" s="7">
+        <v>660152</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>499</v>
+      </c>
+      <c r="D12" s="7">
+        <v>544876</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
+        <v>524</v>
+      </c>
+      <c r="I12" s="7">
+        <v>547176</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1023</v>
+      </c>
+      <c r="N12" s="7">
+        <v>1092052</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <v>883</v>
+      </c>
+      <c r="D13" s="7">
+        <v>931391</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1151</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1241757</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="M13" s="7">
+        <v>2034</v>
+      </c>
+      <c r="N13" s="7">
+        <v>2173148</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7">
+        <v>2317</v>
+      </c>
+      <c r="D14" s="7">
+        <v>2429048</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H14" s="7">
+        <v>2159</v>
+      </c>
+      <c r="I14" s="7">
+        <v>2273585</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="M14" s="7">
+        <v>4476</v>
+      </c>
+      <c r="N14" s="7">
+        <v>4702634</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>3200</v>
+      </c>
+      <c r="D15" s="7">
+        <v>3360439</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>3310</v>
+      </c>
+      <c r="I15" s="7">
+        <v>3515342</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>6510</v>
+      </c>
+      <c r="N15" s="7">
+        <v>6875782</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39BDC79-310E-4112-9065-088F5E2E11EA}">
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>477</v>
+      </c>
+      <c r="D4" s="7">
+        <v>375742</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1055</v>
+      </c>
+      <c r="I4" s="7">
+        <v>612339</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="M4" s="7">
+        <v>1532</v>
+      </c>
+      <c r="N4" s="7">
+        <v>988081</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>213</v>
+      </c>
+      <c r="D5" s="7">
+        <v>165108</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H5" s="7">
+        <v>368</v>
+      </c>
+      <c r="I5" s="7">
+        <v>221403</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="M5" s="7">
+        <v>581</v>
+      </c>
+      <c r="N5" s="7">
+        <v>386511</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>690</v>
+      </c>
+      <c r="D6" s="7">
+        <v>540850</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1423</v>
+      </c>
+      <c r="I6" s="7">
+        <v>833742</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7">
+        <v>2113</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1374592</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1427</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1520856</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H7" s="7">
+        <v>2252</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1732551</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="M7" s="7">
+        <v>3679</v>
+      </c>
+      <c r="N7" s="7">
+        <v>3253407</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>562</v>
+      </c>
+      <c r="D8" s="7">
+        <v>638416</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H8" s="7">
+        <v>666</v>
+      </c>
+      <c r="I8" s="7">
+        <v>514686</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1228</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1153102</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1989</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2159272</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
+        <v>2918</v>
+      </c>
+      <c r="I9" s="7">
+        <v>2247237</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="7">
+        <v>4907</v>
+      </c>
+      <c r="N9" s="7">
+        <v>4406509</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>512</v>
+      </c>
+      <c r="D10" s="7">
+        <v>501955</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H10" s="7">
+        <v>836</v>
+      </c>
+      <c r="I10" s="7">
+        <v>580706</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1348</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1082662</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7">
+        <v>169</v>
+      </c>
+      <c r="D11" s="7">
+        <v>171084</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H11" s="7">
+        <v>168</v>
+      </c>
+      <c r="I11" s="7">
+        <v>133180</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="M11" s="7">
+        <v>337</v>
+      </c>
+      <c r="N11" s="7">
+        <v>304264</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>681</v>
+      </c>
+      <c r="D12" s="7">
+        <v>673039</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1004</v>
+      </c>
+      <c r="I12" s="7">
+        <v>713886</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1685</v>
+      </c>
+      <c r="N12" s="7">
+        <v>1386926</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <v>2416</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2398553</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H13" s="7">
+        <v>4143</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2925596</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="M13" s="7">
+        <v>6559</v>
+      </c>
+      <c r="N13" s="7">
+        <v>5324149</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7">
+        <v>944</v>
+      </c>
+      <c r="D14" s="7">
+        <v>974607</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1202</v>
+      </c>
+      <c r="I14" s="7">
+        <v>869270</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="M14" s="7">
+        <v>2146</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1843877</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
         <v>3360</v>
       </c>
       <c r="D15" s="7">
@@ -1437,7 +4344,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B_3_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B_3_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{777B32FC-EDB5-4C50-9FE5-71FA0FE8F160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B241B05C-6F18-4233-9AC5-6979D885C188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{37A8E9C7-29C1-406F-A725-2C5F2170374E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C2785AD9-5508-4B56-B94E-9A518AEBD72F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
   <si>
     <t>Población que consume verduras y hortalizas a diario en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>25,71%</t>
   </si>
   <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
   </si>
   <si>
     <t>28,47%</t>
   </si>
   <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
   </si>
   <si>
     <t>27,26%</t>
   </si>
   <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>74,29%</t>
   </si>
   <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
   </si>
   <si>
     <t>71,53%</t>
   </si>
   <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
   </si>
   <si>
     <t>72,74%</t>
   </si>
   <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>17,04%</t>
   </si>
   <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
   </si>
   <si>
     <t>26,18%</t>
   </si>
   <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
   </si>
   <si>
     <t>21,47%</t>
   </si>
   <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
   </si>
   <si>
     <t>82,96%</t>
   </si>
   <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
   </si>
   <si>
     <t>73,82%</t>
   </si>
   <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
   </si>
   <si>
     <t>78,53%</t>
   </si>
   <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,109 +197,109 @@
     <t>24,12%</t>
   </si>
   <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
   </si>
   <si>
     <t>31,81%</t>
   </si>
   <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
   </si>
   <si>
     <t>27,69%</t>
   </si>
   <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
   </si>
   <si>
     <t>75,88%</t>
   </si>
   <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
   </si>
   <si>
     <t>68,19%</t>
   </si>
   <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
   </si>
   <si>
     <t>72,31%</t>
   </si>
   <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
   </si>
   <si>
     <t>20,96%</t>
   </si>
   <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
   </si>
   <si>
     <t>27,87%</t>
   </si>
   <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
   </si>
   <si>
     <t>24,47%</t>
   </si>
   <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
   </si>
   <si>
     <t>79,04%</t>
   </si>
   <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
   </si>
   <si>
     <t>72,13%</t>
   </si>
   <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
   </si>
   <si>
     <t>75,53%</t>
   </si>
   <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -311,178 +311,178 @@
     <t>42,73%</t>
   </si>
   <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
   </si>
   <si>
     <t>49,46%</t>
   </si>
   <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
   </si>
   <si>
     <t>46,63%</t>
   </si>
   <si>
-    <t>44,18%</t>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
   </si>
   <si>
     <t>48,64%</t>
   </si>
   <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
   </si>
   <si>
     <t>51,36%</t>
   </si>
   <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
     <t>54,39%</t>
   </si>
   <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
   </si>
   <si>
     <t>35,94%</t>
   </si>
   <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
   </si>
   <si>
     <t>46,18%</t>
   </si>
   <si>
-    <t>44,45%</t>
+    <t>44,44%</t>
   </si>
   <si>
     <t>47,93%</t>
@@ -491,19 +491,19 @@
     <t>41,16%</t>
   </si>
   <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
   </si>
   <si>
     <t>64,06%</t>
   </si>
   <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
   </si>
   <si>
     <t>53,82%</t>
@@ -512,16 +512,16 @@
     <t>52,07%</t>
   </si>
   <si>
-    <t>55,55%</t>
+    <t>55,56%</t>
   </si>
   <si>
     <t>58,84%</t>
   </si>
   <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
   </si>
   <si>
     <t>Población que consume verduras y hortalizas a diario en 2016 (Tasa respuesta: 99,53%)</t>
@@ -530,109 +530,97 @@
     <t>28,94%</t>
   </si>
   <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
   </si>
   <si>
     <t>33,97%</t>
   </si>
   <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
   </si>
   <si>
     <t>71,06%</t>
   </si>
   <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
   </si>
   <si>
     <t>66,03%</t>
   </si>
   <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
   </si>
   <si>
     <t>24,73%</t>
   </si>
   <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
   </si>
   <si>
     <t>32,3%</t>
   </si>
   <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
   </si>
   <si>
     <t>28,44%</t>
   </si>
   <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
   </si>
   <si>
     <t>75,27%</t>
   </si>
   <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
   </si>
   <si>
     <t>67,7%</t>
   </si>
   <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
   </si>
   <si>
     <t>71,56%</t>
   </si>
   <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
   </si>
   <si>
     <t>37,32%</t>
@@ -641,31 +629,31 @@
     <t>32,87%</t>
   </si>
   <si>
-    <t>42,12%</t>
+    <t>41,38%</t>
   </si>
   <si>
     <t>41,77%</t>
   </si>
   <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
   </si>
   <si>
     <t>39,55%</t>
   </si>
   <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
   </si>
   <si>
     <t>62,68%</t>
   </si>
   <si>
-    <t>57,88%</t>
+    <t>58,62%</t>
   </si>
   <si>
     <t>67,13%</t>
@@ -674,19 +662,19 @@
     <t>58,23%</t>
   </si>
   <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
   </si>
   <si>
     <t>60,45%</t>
   </si>
   <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
   </si>
   <si>
     <t>27,72%</t>
@@ -695,52 +683,46 @@
     <t>26,14%</t>
   </si>
   <si>
-    <t>29,36%</t>
-  </si>
-  <si>
     <t>35,32%</t>
   </si>
   <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
   </si>
   <si>
     <t>31,61%</t>
   </si>
   <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
   </si>
   <si>
     <t>72,28%</t>
   </si>
   <si>
-    <t>70,64%</t>
-  </si>
-  <si>
     <t>73,86%</t>
   </si>
   <si>
     <t>64,68%</t>
   </si>
   <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
   </si>
   <si>
     <t>68,39%</t>
   </si>
   <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
   </si>
   <si>
     <t>Población que consume verduras y hortalizas a diario en 2023 (Tasa respuesta: 99,82%)</t>
@@ -749,205 +731,205 @@
     <t>69,47%</t>
   </si>
   <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
+    <t>73,26%</t>
   </si>
   <si>
     <t>73,44%</t>
   </si>
   <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
   </si>
   <si>
     <t>71,88%</t>
   </si>
   <si>
-    <t>69,37%</t>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
   </si>
   <si>
     <t>30,53%</t>
   </si>
   <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
+    <t>26,74%</t>
   </si>
   <si>
     <t>26,56%</t>
   </si>
   <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
   </si>
   <si>
     <t>28,12%</t>
   </si>
   <si>
-    <t>30,63%</t>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
   </si>
   <si>
     <t>70,43%</t>
   </si>
   <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
   </si>
   <si>
     <t>77,1%</t>
   </si>
   <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
   </si>
   <si>
     <t>73,83%</t>
   </si>
   <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
   </si>
   <si>
     <t>29,57%</t>
   </si>
   <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
   </si>
   <si>
     <t>22,9%</t>
   </si>
   <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
   </si>
   <si>
     <t>26,17%</t>
   </si>
   <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
   </si>
   <si>
     <t>74,58%</t>
   </si>
   <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
   </si>
   <si>
     <t>81,34%</t>
   </si>
   <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
   </si>
   <si>
     <t>78,06%</t>
   </si>
   <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
   </si>
   <si>
     <t>25,42%</t>
   </si>
   <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
   </si>
   <si>
     <t>18,66%</t>
   </si>
   <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
   </si>
   <si>
     <t>21,94%</t>
   </si>
   <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
   </si>
   <si>
     <t>71,11%</t>
   </si>
   <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
   </si>
   <si>
     <t>74,28%</t>
   </si>
   <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
   </si>
   <si>
     <t>28,89%</t>
   </si>
   <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
   </si>
   <si>
     <t>25,72%</t>
   </si>
   <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE33AACC-F46D-47DD-A417-E019690EBA1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D327D8-1802-4CB7-AA96-90231C495E9C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1686,7 +1668,7 @@
         <v>1370</v>
       </c>
       <c r="D8" s="7">
-        <v>1404796</v>
+        <v>1404795</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1737,7 +1719,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2110,7 +2092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA70697-6688-47C0-8BF1-46A0FBA5DF27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97CDC5DB-9807-44D4-A8D2-29EAFF5B86D5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2467,7 +2449,7 @@
         <v>2208</v>
       </c>
       <c r="N8" s="7">
-        <v>2352122</v>
+        <v>2352121</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>122</v>
@@ -2518,7 +2500,7 @@
         <v>3483</v>
       </c>
       <c r="N9" s="7">
-        <v>3711819</v>
+        <v>3711818</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2861,7 +2843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D52E806B-6F34-44D4-9770-FE4CFF7B8517}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025C8470-DDE7-4F34-A652-9C05E8145CAC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2991,7 +2973,7 @@
         <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>164</v>
+        <v>54</v>
       </c>
       <c r="H4" s="7">
         <v>336</v>
@@ -3000,13 +2982,13 @@
         <v>374219</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>557</v>
@@ -3015,13 +2997,13 @@
         <v>591987</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3036,13 +3018,13 @@
         <v>534620</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>172</v>
+        <v>63</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H5" s="7">
         <v>552</v>
@@ -3051,28 +3033,28 @@
         <v>615972</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
         <v>1091</v>
       </c>
       <c r="N5" s="7">
-        <v>1150593</v>
+        <v>1150592</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3114,7 +3096,7 @@
         <v>1648</v>
       </c>
       <c r="N6" s="7">
-        <v>1742580</v>
+        <v>1742579</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3140,13 +3122,13 @@
         <v>510297</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H7" s="7">
         <v>601</v>
@@ -3155,13 +3137,13 @@
         <v>638964</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M7" s="7">
         <v>1079</v>
@@ -3170,13 +3152,13 @@
         <v>1149261</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,13 +3173,13 @@
         <v>1552878</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H8" s="7">
         <v>1297</v>
@@ -3206,13 +3188,13 @@
         <v>1339011</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>2760</v>
@@ -3221,13 +3203,13 @@
         <v>2891889</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3295,13 +3277,13 @@
         <v>203327</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H10" s="7">
         <v>214</v>
@@ -3310,13 +3292,13 @@
         <v>228574</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>398</v>
@@ -3325,13 +3307,13 @@
         <v>431900</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3346,13 +3328,13 @@
         <v>341549</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H11" s="7">
         <v>310</v>
@@ -3361,13 +3343,13 @@
         <v>318602</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M11" s="7">
         <v>625</v>
@@ -3376,13 +3358,13 @@
         <v>660152</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3450,13 +3432,13 @@
         <v>931391</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>218</v>
+        <v>19</v>
       </c>
       <c r="H13" s="7">
         <v>1151</v>
@@ -3465,13 +3447,13 @@
         <v>1241757</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="M13" s="7">
         <v>2034</v>
@@ -3480,13 +3462,13 @@
         <v>2173148</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,13 +3483,13 @@
         <v>2429048</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>226</v>
+        <v>28</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H14" s="7">
         <v>2159</v>
@@ -3516,13 +3498,13 @@
         <v>2273585</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="M14" s="7">
         <v>4476</v>
@@ -3531,13 +3513,13 @@
         <v>4702634</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3612,7 +3594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39BDC79-310E-4112-9065-088F5E2E11EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C6C9530-64F2-40F2-85EB-BB786D84F7F8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3629,7 +3611,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3736,13 +3718,13 @@
         <v>375742</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>236</v>
+        <v>154</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="H4" s="7">
         <v>1055</v>
@@ -3751,13 +3733,13 @@
         <v>612339</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="M4" s="7">
         <v>1532</v>
@@ -3766,13 +3748,13 @@
         <v>988081</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>44</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3787,13 +3769,13 @@
         <v>165108</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>245</v>
+        <v>144</v>
       </c>
       <c r="H5" s="7">
         <v>368</v>
@@ -3802,13 +3784,13 @@
         <v>221403</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="M5" s="7">
         <v>581</v>
@@ -3817,13 +3799,13 @@
         <v>386511</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>35</v>
+        <v>243</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,13 +3873,13 @@
         <v>1520856</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H7" s="7">
         <v>2252</v>
@@ -3906,28 +3888,28 @@
         <v>1732551</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="M7" s="7">
         <v>3679</v>
       </c>
       <c r="N7" s="7">
-        <v>3253407</v>
+        <v>3253406</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,13 +3924,13 @@
         <v>638416</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="H8" s="7">
         <v>666</v>
@@ -3957,13 +3939,13 @@
         <v>514686</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M8" s="7">
         <v>1228</v>
@@ -3972,13 +3954,13 @@
         <v>1153102</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,7 +4002,7 @@
         <v>4907</v>
       </c>
       <c r="N9" s="7">
-        <v>4406509</v>
+        <v>4406508</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4046,13 +4028,13 @@
         <v>501955</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="H10" s="7">
         <v>836</v>
@@ -4061,13 +4043,13 @@
         <v>580706</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="M10" s="7">
         <v>1348</v>
@@ -4076,13 +4058,13 @@
         <v>1082662</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,13 +4079,13 @@
         <v>171084</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H11" s="7">
         <v>168</v>
@@ -4112,13 +4094,13 @@
         <v>133180</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="M11" s="7">
         <v>337</v>
@@ -4127,13 +4109,13 @@
         <v>304264</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,13 +4183,13 @@
         <v>2398553</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>242</v>
+        <v>282</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="H13" s="7">
         <v>4143</v>
@@ -4216,13 +4198,13 @@
         <v>2925596</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>289</v>
+        <v>187</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="M13" s="7">
         <v>6559</v>
@@ -4231,13 +4213,13 @@
         <v>5324149</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,13 +4234,13 @@
         <v>974607</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>250</v>
+        <v>291</v>
       </c>
       <c r="H14" s="7">
         <v>1202</v>
@@ -4267,13 +4249,13 @@
         <v>869270</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>297</v>
+        <v>177</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="M14" s="7">
         <v>2146</v>
@@ -4282,13 +4264,13 @@
         <v>1843877</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P36B_3_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B_3_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B241B05C-6F18-4233-9AC5-6979D885C188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09713CCC-D462-461E-8FAA-04F97A981E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C2785AD9-5508-4B56-B94E-9A518AEBD72F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2E82235B-DDB3-4EA0-9EE8-B3CEE61F20D3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
   <si>
     <t>Población que consume verduras y hortalizas a diario en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -728,208 +728,214 @@
     <t>Población que consume verduras y hortalizas a diario en 2023 (Tasa respuesta: 99,82%)</t>
   </si>
   <si>
-    <t>69,47%</t>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
   </si>
   <si>
     <t>73,26%</t>
   </si>
   <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
   </si>
   <si>
     <t>26,74%</t>
   </si>
   <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D327D8-1802-4CB7-AA96-90231C495E9C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3703AB84-BF8E-4E57-B6AA-457FA1FF673D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1543,7 +1549,7 @@
         <v>1691</v>
       </c>
       <c r="N5" s="7">
-        <v>1706560</v>
+        <v>1706559</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1594,7 +1600,7 @@
         <v>2328</v>
       </c>
       <c r="N6" s="7">
-        <v>2346002</v>
+        <v>2346001</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1668,7 +1674,7 @@
         <v>1370</v>
       </c>
       <c r="D8" s="7">
-        <v>1404795</v>
+        <v>1404796</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1719,7 +1725,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1942,7 +1948,7 @@
         <v>908</v>
       </c>
       <c r="I13" s="7">
-        <v>941363</v>
+        <v>941362</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
@@ -2044,7 +2050,7 @@
         <v>3296</v>
       </c>
       <c r="I15" s="7">
-        <v>3378138</v>
+        <v>3378137</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2092,7 +2098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97CDC5DB-9807-44D4-A8D2-29EAFF5B86D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7810B72-1BAF-4F45-A0FF-54AF917EDB0A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2228,7 +2234,7 @@
         <v>621</v>
       </c>
       <c r="I4" s="7">
-        <v>661702</v>
+        <v>661703</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>92</v>
@@ -2330,7 +2336,7 @@
         <v>1247</v>
       </c>
       <c r="I6" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2449,7 +2455,7 @@
         <v>2208</v>
       </c>
       <c r="N8" s="7">
-        <v>2352121</v>
+        <v>2352122</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>122</v>
@@ -2500,7 +2506,7 @@
         <v>3483</v>
       </c>
       <c r="N9" s="7">
-        <v>3711818</v>
+        <v>3711819</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2759,7 +2765,7 @@
         <v>3820</v>
       </c>
       <c r="N14" s="7">
-        <v>4093587</v>
+        <v>4093588</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>158</v>
@@ -2810,7 +2816,7 @@
         <v>6482</v>
       </c>
       <c r="N15" s="7">
-        <v>6956972</v>
+        <v>6956973</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2843,7 +2849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025C8470-DDE7-4F34-A652-9C05E8145CAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AEEE0FE-E8C8-4A75-B683-192D3525C49E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3495,7 +3501,7 @@
         <v>2159</v>
       </c>
       <c r="I14" s="7">
-        <v>2273585</v>
+        <v>2273586</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>222</v>
@@ -3546,7 +3552,7 @@
         <v>3310</v>
       </c>
       <c r="I15" s="7">
-        <v>3515342</v>
+        <v>3515343</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3594,7 +3600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C6C9530-64F2-40F2-85EB-BB786D84F7F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DAFA86C-6BA3-4EE4-AEE4-76647F2919EC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3715,40 +3721,40 @@
         <v>477</v>
       </c>
       <c r="D4" s="7">
-        <v>375742</v>
+        <v>351192</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>229</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>154</v>
+        <v>230</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H4" s="7">
         <v>1055</v>
       </c>
       <c r="I4" s="7">
-        <v>612339</v>
+        <v>549646</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M4" s="7">
         <v>1532</v>
       </c>
       <c r="N4" s="7">
-        <v>988081</v>
+        <v>900838</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>234</v>
+        <v>169</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>235</v>
@@ -3766,7 +3772,7 @@
         <v>213</v>
       </c>
       <c r="D5" s="7">
-        <v>165108</v>
+        <v>163005</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>237</v>
@@ -3775,31 +3781,31 @@
         <v>238</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>144</v>
+        <v>239</v>
       </c>
       <c r="H5" s="7">
         <v>368</v>
       </c>
       <c r="I5" s="7">
-        <v>221403</v>
+        <v>203829</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M5" s="7">
         <v>581</v>
       </c>
       <c r="N5" s="7">
-        <v>386511</v>
+        <v>366834</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>242</v>
+        <v>162</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>243</v>
@@ -3817,7 +3823,7 @@
         <v>690</v>
       </c>
       <c r="D6" s="7">
-        <v>540850</v>
+        <v>514197</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3832,7 +3838,7 @@
         <v>1423</v>
       </c>
       <c r="I6" s="7">
-        <v>833742</v>
+        <v>753475</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3847,7 +3853,7 @@
         <v>2113</v>
       </c>
       <c r="N6" s="7">
-        <v>1374592</v>
+        <v>1267672</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3870,7 +3876,7 @@
         <v>1427</v>
       </c>
       <c r="D7" s="7">
-        <v>1520856</v>
+        <v>1641580</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>245</v>
@@ -3885,7 +3891,7 @@
         <v>2252</v>
       </c>
       <c r="I7" s="7">
-        <v>1732551</v>
+        <v>1752638</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>248</v>
@@ -3900,7 +3906,7 @@
         <v>3679</v>
       </c>
       <c r="N7" s="7">
-        <v>3253406</v>
+        <v>3394217</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>251</v>
@@ -3921,7 +3927,7 @@
         <v>562</v>
       </c>
       <c r="D8" s="7">
-        <v>638416</v>
+        <v>646202</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>254</v>
@@ -3936,7 +3942,7 @@
         <v>666</v>
       </c>
       <c r="I8" s="7">
-        <v>514686</v>
+        <v>483320</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>257</v>
@@ -3951,7 +3957,7 @@
         <v>1228</v>
       </c>
       <c r="N8" s="7">
-        <v>1153102</v>
+        <v>1129522</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>260</v>
@@ -3972,7 +3978,7 @@
         <v>1989</v>
       </c>
       <c r="D9" s="7">
-        <v>2159272</v>
+        <v>2287782</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3987,7 +3993,7 @@
         <v>2918</v>
       </c>
       <c r="I9" s="7">
-        <v>2247237</v>
+        <v>2235958</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4002,7 +4008,7 @@
         <v>4907</v>
       </c>
       <c r="N9" s="7">
-        <v>4406508</v>
+        <v>4523739</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4025,7 +4031,7 @@
         <v>512</v>
       </c>
       <c r="D10" s="7">
-        <v>501955</v>
+        <v>477171</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>263</v>
@@ -4040,7 +4046,7 @@
         <v>836</v>
       </c>
       <c r="I10" s="7">
-        <v>580706</v>
+        <v>535007</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>266</v>
@@ -4055,7 +4061,7 @@
         <v>1348</v>
       </c>
       <c r="N10" s="7">
-        <v>1082662</v>
+        <v>1012178</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>269</v>
@@ -4076,7 +4082,7 @@
         <v>169</v>
       </c>
       <c r="D11" s="7">
-        <v>171084</v>
+        <v>169452</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>272</v>
@@ -4091,7 +4097,7 @@
         <v>168</v>
       </c>
       <c r="I11" s="7">
-        <v>133180</v>
+        <v>125456</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>275</v>
@@ -4106,7 +4112,7 @@
         <v>337</v>
       </c>
       <c r="N11" s="7">
-        <v>304264</v>
+        <v>294908</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>278</v>
@@ -4127,7 +4133,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4142,7 +4148,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4157,7 +4163,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4180,7 +4186,7 @@
         <v>2416</v>
       </c>
       <c r="D13" s="7">
-        <v>2398553</v>
+        <v>2469943</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>281</v>
@@ -4195,31 +4201,31 @@
         <v>4143</v>
       </c>
       <c r="I13" s="7">
-        <v>2925596</v>
+        <v>2837291</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>187</v>
+        <v>284</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M13" s="7">
         <v>6559</v>
       </c>
       <c r="N13" s="7">
-        <v>5324149</v>
+        <v>5307234</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4231,46 +4237,46 @@
         <v>944</v>
       </c>
       <c r="D14" s="7">
-        <v>974607</v>
+        <v>978659</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H14" s="7">
         <v>1202</v>
       </c>
       <c r="I14" s="7">
-        <v>869270</v>
+        <v>812605</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>177</v>
+        <v>293</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M14" s="7">
         <v>2146</v>
       </c>
       <c r="N14" s="7">
-        <v>1843877</v>
+        <v>1791264</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,7 +4288,7 @@
         <v>3360</v>
       </c>
       <c r="D15" s="7">
-        <v>3373160</v>
+        <v>3448602</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4297,7 +4303,7 @@
         <v>5345</v>
       </c>
       <c r="I15" s="7">
-        <v>3794866</v>
+        <v>3649896</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4312,7 +4318,7 @@
         <v>8705</v>
       </c>
       <c r="N15" s="7">
-        <v>7168026</v>
+        <v>7098498</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
